--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="91">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,100 @@
   </si>
   <si>
     <t>fracture at 1051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>T:200s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:240s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fracture at </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,17 +784,18 @@
     <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
     <col min="18" max="19" width="25" style="5" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="4" bestFit="1" customWidth="1"/>
@@ -1503,7 +1598,7 @@
         <v>180</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>16</v>
@@ -1571,13 +1666,13 @@
         <v>180</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="T13" s="8">
-        <v>42306</v>
+        <v>43037</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>64</v>
@@ -1587,97 +1682,735 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T14" s="8"/>
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="8">
+        <v>43038</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="T15" s="8"/>
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="8">
+        <v>43039</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="10:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="8">
+        <v>43040</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="8">
+        <v>43041</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="8">
+        <v>43042</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="8">
+        <v>43043</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>180</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="8">
+        <v>43044</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>180</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="8">
+        <v>43045</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="8">
+        <v>43046</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="8">
+        <v>43047</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J24" s="5"/>
       <c r="O24" s="5"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J25" s="5"/>
       <c r="O25" s="5"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J26" s="5"/>
       <c r="O26" s="5"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J27" s="5"/>
       <c r="O27" s="5"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J28" s="5"/>
       <c r="O28" s="5"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J29" s="5"/>
       <c r="L29" s="5"/>
       <c r="O29" s="5"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J30" s="5"/>
       <c r="L30" s="5"/>
       <c r="O30" s="5"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J31" s="5"/>
       <c r="L31" s="5"/>
       <c r="O31" s="5"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J32" s="5"/>
       <c r="O32" s="5"/>
       <c r="T32" s="8"/>

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="93">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t xml:space="preserve">fracture at </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,9 +781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2260,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>9</v>
@@ -2281,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>76</v>
@@ -2297,6 +2305,9 @@
       </c>
       <c r="V22" s="4">
         <v>1</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -2365,6 +2376,9 @@
       </c>
       <c r="V23" s="4">
         <v>1</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -568,6 +568,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -603,6 +620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,9 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -1479,7 +1513,7 @@
         <v>42334</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V10" s="4">
         <v>1</v>
@@ -1514,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>20</v>
@@ -1547,7 +1581,7 @@
         <v>42335</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" s="4">
         <v>1</v>
@@ -1786,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>9</v>
@@ -2315,10 +2349,10 @@
         <v>74</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C23" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D23" s="3">
         <v>12</v>
@@ -2360,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>76</v>

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,19 +367,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">fracture at </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,23 +572,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -620,23 +607,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,20 +787,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
     <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
@@ -1749,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>79</v>
@@ -1817,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>48</v>
@@ -1885,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>77</v>
@@ -1953,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>47</v>
@@ -1995,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
@@ -2024,7 +1994,7 @@
         <v>45</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>77</v>
@@ -2066,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
@@ -2095,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>84</v>
@@ -2163,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>86</v>
@@ -2231,7 +2201,7 @@
         <v>45</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>84</v>
@@ -2299,10 +2269,10 @@
         <v>45</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>9</v>
@@ -2335,13 +2305,13 @@
         <v>43046</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -2370,7 +2340,7 @@
         <v>45</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>47</v>
@@ -2406,13 +2376,13 @@
         <v>43047</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V23" s="4">
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,7 +383,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">fracture at </t>
+    <t>fracture at 556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.72</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,6 +576,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -607,6 +628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,7 +825,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1825,7 @@
         <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>48</v>
@@ -1858,7 +1896,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>9</v>

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="98">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,75 +319,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fracture at 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ramp:+-0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fracture at 76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 620</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 556</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,23 +588,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -628,23 +623,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,21 +801,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.5" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
     <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
@@ -846,8 +824,9 @@
     <col min="15" max="15" width="21.625" style="6" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
-    <col min="18" max="19" width="25" style="5" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="25" style="5" customWidth="1"/>
+    <col min="19" max="19" width="25" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
@@ -1760,7 +1739,7 @@
         <v>49</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>9</v>
@@ -1793,7 +1772,7 @@
         <v>43038</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V14" s="4">
         <v>1</v>
@@ -1861,7 +1840,7 @@
         <v>43039</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
@@ -1896,7 +1875,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>9</v>
@@ -1929,7 +1908,7 @@
         <v>43040</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V16" s="4">
         <v>1</v>
@@ -1964,7 +1943,7 @@
         <v>47</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>9</v>
@@ -1997,13 +1976,13 @@
         <v>43041</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V17" s="4">
         <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
@@ -2035,7 +2014,7 @@
         <v>48</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>9</v>
@@ -2068,13 +2047,13 @@
         <v>43042</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V18" s="4">
         <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
@@ -2103,10 +2082,10 @@
         <v>45</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>9</v>
@@ -2139,7 +2118,7 @@
         <v>43043</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V19" s="4">
         <v>1</v>
@@ -2171,10 +2150,10 @@
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>9</v>
@@ -2207,7 +2186,7 @@
         <v>43044</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V20" s="4">
         <v>1</v>
@@ -2239,10 +2218,10 @@
         <v>45</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>9</v>
@@ -2275,7 +2254,7 @@
         <v>43045</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V21" s="4">
         <v>1</v>
@@ -2307,10 +2286,10 @@
         <v>45</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>9</v>
@@ -2343,13 +2322,13 @@
         <v>43046</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -2381,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>9</v>
@@ -2414,13 +2393,13 @@
         <v>43047</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V23" s="4">
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">

--- a/CMSX4_test_log.xlsx
+++ b/CMSX4_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="105">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,27 @@
   <si>
     <t>ramp:+-0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.7</t>
+  </si>
+  <si>
+    <t>+-0.6</t>
+  </si>
+  <si>
+    <t>+-0.72</t>
+  </si>
+  <si>
+    <t>+-0.48</t>
+  </si>
+  <si>
+    <t>+-0.36</t>
+  </si>
+  <si>
+    <t>+-1.0</t>
+  </si>
+  <si>
+    <t>+-0.5</t>
   </si>
 </sst>
 </file>
@@ -803,7 +824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="A17:XFD17"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,12 +839,11 @@
     <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
     <col min="18" max="18" width="25" style="5" customWidth="1"/>
     <col min="19" max="19" width="25" style="5" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" hidden="1" customWidth="1"/>
@@ -943,7 +963,7 @@
       <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="7">
@@ -1008,7 +1028,7 @@
       <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="7">
@@ -1073,8 +1093,8 @@
       <c r="N4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>16</v>
+      <c r="O4" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
@@ -1141,8 +1161,8 @@
       <c r="N5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>16</v>
+      <c r="O5" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
@@ -1209,8 +1229,8 @@
       <c r="N6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>9</v>
+      <c r="O6" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
@@ -1277,8 +1297,8 @@
       <c r="N7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>16</v>
+      <c r="O7" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P7" s="7">
         <v>0</v>
@@ -1345,8 +1365,8 @@
       <c r="N8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>16</v>
+      <c r="O8" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="P8" s="7">
         <v>0</v>
@@ -1413,8 +1433,8 @@
       <c r="N9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>9</v>
+      <c r="O9" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="P9" s="7">
         <v>0</v>
@@ -1481,8 +1501,8 @@
       <c r="N10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>9</v>
+      <c r="O10" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="P10" s="7">
         <v>0</v>
@@ -1549,8 +1569,8 @@
       <c r="N11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>9</v>
+      <c r="O11" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P11" s="7">
         <v>0</v>
@@ -1617,8 +1637,8 @@
       <c r="N12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>16</v>
+      <c r="O12" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
@@ -1685,8 +1705,8 @@
       <c r="N13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>16</v>
+      <c r="O13" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -1753,8 +1773,8 @@
       <c r="N14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>9</v>
+      <c r="O14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -1821,8 +1841,8 @@
       <c r="N15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>9</v>
+      <c r="O15" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -1889,8 +1909,8 @@
       <c r="N16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>9</v>
+      <c r="O16" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="P16" s="7">
         <v>0</v>
@@ -1957,8 +1977,8 @@
       <c r="N17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>9</v>
+      <c r="O17" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P17" s="7">
         <v>0</v>
@@ -2028,8 +2048,8 @@
       <c r="N18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>9</v>
+      <c r="O18" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="P18" s="7">
         <v>0</v>
@@ -2099,8 +2119,8 @@
       <c r="N19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>9</v>
+      <c r="O19" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="P19" s="7">
         <v>0</v>
@@ -2167,8 +2187,8 @@
       <c r="N20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>9</v>
+      <c r="O20" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="P20" s="7">
         <v>0</v>
@@ -2235,8 +2255,8 @@
       <c r="N21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>9</v>
+      <c r="O21" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="P21" s="7">
         <v>0</v>
@@ -2303,8 +2323,8 @@
       <c r="N22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>9</v>
+      <c r="O22" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="P22" s="7">
         <v>0</v>
@@ -2374,8 +2394,8 @@
       <c r="N23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>9</v>
+      <c r="O23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P23" s="7">
         <v>0</v>
